--- a/medicine/Enfance/Pierre_Pratt/Pierre_Pratt.xlsx
+++ b/medicine/Enfance/Pierre_Pratt/Pierre_Pratt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Pratt est un illustrateur et auteur québécois de littérature jeunesse né le 8 février 1962 à Montréal. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,19 +551,21 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1988 - Finaliste au Prix du Gouverneur général, Peut-il, peut-elle ?
 1990 - Prix du Gouverneur général, Les Fantaisies de l'oncle Henri
 1992 - Finaliste au Prix du Gouverneur général, Léon sans son chapeau
-1993 : Pomme d'Or de Bratislava[1] pour Follow that hat! (Léon sans son chapeau )
+1993 : Pomme d'Or de Bratislava pour Follow that hat! (Léon sans son chapeau )
 1994 - Prix du Gouverneur général, Mon chien est un éléphant
 1995 - Prix du livre M. Christie, Mon chien est un éléphant
 1995 - Finaliste au Prix du Gouverneur général, La Bottine magique de Pipo
 1998 - Prix du Gouverneur général, Monsieur Ilétaitunefois
 1999 - Finaliste au Prix du Gouverneur général, La Vie exemplaire de Martha et Paul
 2003 - Palmarès Communication-Jeunesse des livres préférés des jeunes
-2005 : Plaque d'Or de Bratislava pour Le jour où Zoé zozota[1]
+2005 : Plaque d'Or de Bratislava pour Le jour où Zoé zozota
 2005 - Finaliste au Prix du Gouverneur général, Le jour où Zoé zozota
 2005 - Palmarès Communication-Jeunesse des livres préférés des jeunes
 2006 - Prix Alvine-Bélisle, Le jour où Zoé zozota
